--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC44A0D-1087-4C6A-858F-C7E78DACF6D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E44020-FA04-4A33-9381-C81E27EC7AC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +393,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -770,13 +777,13 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="8.125" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
@@ -792,7 +799,7 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -803,7 +810,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -811,7 +818,7 @@
       <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -819,7 +826,7 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -827,7 +834,7 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -835,7 +842,7 @@
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -851,7 +858,7 @@
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -894,7 +901,7 @@
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -902,7 +909,7 @@
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>63</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E44020-FA04-4A33-9381-C81E27EC7AC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354F7EC-5A56-490E-90A2-001796E2CB99}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社区sdk接入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intelligent.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>community.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>document.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +274,52 @@
   </si>
   <si>
     <t>SDK下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIRACLE GAMES开放平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWGC
+Windows 全球开发者联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIRACLE GAMES开放平台(css)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWGC(css)
+Windows 全球开发者联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +357,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,7 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +428,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,8 +482,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,98 +787,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A20:A30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -774,284 +1027,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="4">
+        <v>5</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="G44" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45" s="4">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G45" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D47" s="4">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="F47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="4">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="4">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="4">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="4">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="1">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="4">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="4">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A18:A23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1063,7 +1387,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354F7EC-5A56-490E-90A2-001796E2CB99}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270298F-BE76-4DE5-9536-93247116935B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
   </si>
   <si>
     <t>pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>document.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +316,26 @@
   </si>
   <si>
     <t>tab-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_active.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,7 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +528,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,8 +832,8 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -821,7 +844,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -829,7 +852,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -837,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -845,7 +868,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -853,13 +876,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -867,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -875,13 +898,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -891,13 +914,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -907,117 +930,165 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A27:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1050,331 +1121,363 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>64</v>
+      <c r="A2" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>46</v>
+      <c r="D7" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="20" t="s">
-        <v>47</v>
+      <c r="D9" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11" t="s">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="4">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="4">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="4">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="4">
-        <v>6</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="1">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D47" s="4">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D48" s="4">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="4">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="4">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="4">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53" s="4">
         <v>9</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270298F-BE76-4DE5-9536-93247116935B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733E4EB-5672-42AA-8081-37BEC77216DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,94 @@
   </si>
   <si>
     <t>rec_active.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备品牌分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_brand.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_sex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_age.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_job.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_dis.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_game.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软官方报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG官方报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_win.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_official.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_theme.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,6 +597,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,15 +612,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,7 +928,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -844,7 +940,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -852,7 +948,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -860,7 +956,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -868,7 +964,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -876,13 +972,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -890,7 +986,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -898,13 +994,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -914,13 +1010,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -930,7 +1026,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
@@ -940,7 +1036,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
         <v>74</v>
       </c>
@@ -952,43 +1048,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
@@ -998,7 +1094,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
         <v>56</v>
       </c>
@@ -1008,7 +1104,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="11"/>
@@ -1018,7 +1114,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
         <v>69</v>
       </c>
@@ -1030,7 +1126,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1038,49 +1134,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1098,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:CT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1113,103 +1209,258 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="77" max="98" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+    </row>
+    <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="BY3" s="21"/>
+      <c r="BZ3" s="21"/>
+      <c r="CA3" s="21"/>
+      <c r="CB3" s="21"/>
+      <c r="CC3" s="21"/>
+      <c r="CD3" s="21"/>
+      <c r="CE3" s="21"/>
+      <c r="CF3" s="21"/>
+      <c r="CG3" s="21"/>
+      <c r="CH3" s="21"/>
+      <c r="CI3" s="21"/>
+      <c r="CJ3" s="21"/>
+      <c r="CK3" s="21"/>
+      <c r="CL3" s="21"/>
+      <c r="CM3" s="21"/>
+      <c r="CN3" s="21"/>
+      <c r="CO3" s="21"/>
+      <c r="CP3" s="21"/>
+      <c r="CQ3" s="21"/>
+      <c r="CR3" s="21"/>
+      <c r="CS3" s="21"/>
+      <c r="CT3" s="21"/>
+    </row>
+    <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="BY4" s="21"/>
+      <c r="BZ4" s="21"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="21"/>
+      <c r="CC4" s="21"/>
+      <c r="CD4" s="21"/>
+      <c r="CE4" s="21"/>
+      <c r="CF4" s="21"/>
+      <c r="CG4" s="21"/>
+      <c r="CH4" s="21"/>
+      <c r="CI4" s="21"/>
+      <c r="CJ4" s="21"/>
+      <c r="CK4" s="21"/>
+      <c r="CL4" s="21"/>
+      <c r="CM4" s="21"/>
+      <c r="CN4" s="21"/>
+      <c r="CO4" s="21"/>
+      <c r="CP4" s="21"/>
+      <c r="CQ4" s="21"/>
+      <c r="CR4" s="21"/>
+      <c r="CS4" s="21"/>
+      <c r="CT4" s="21"/>
+    </row>
+    <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="21"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="21"/>
+      <c r="CE5" s="21"/>
+      <c r="CF5" s="21"/>
+      <c r="CG5" s="21"/>
+      <c r="CH5" s="21"/>
+      <c r="CI5" s="21"/>
+      <c r="CJ5" s="21"/>
+      <c r="CK5" s="21"/>
+      <c r="CL5" s="21"/>
+      <c r="CM5" s="21"/>
+      <c r="CN5" s="21"/>
+      <c r="CO5" s="21"/>
+      <c r="CP5" s="21"/>
+      <c r="CQ5" s="21"/>
+      <c r="CR5" s="21"/>
+      <c r="CS5" s="21"/>
+      <c r="CT5" s="21"/>
+    </row>
+    <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" s="21"/>
+      <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
+      <c r="CM6" s="21"/>
+      <c r="CN6" s="21"/>
+      <c r="CO6" s="21"/>
+      <c r="CP6" s="21"/>
+      <c r="CQ6" s="21"/>
+      <c r="CR6" s="21"/>
+      <c r="CS6" s="21"/>
+      <c r="CT6" s="21"/>
+    </row>
+    <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
+      <c r="CQ7" s="21"/>
+      <c r="CR7" s="21"/>
+      <c r="CS7" s="21"/>
+      <c r="CT7" s="21"/>
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
       <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21"/>
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21"/>
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21"/>
+    </row>
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1218,8 +1469,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>77</v>
@@ -1228,256 +1479,426 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="C13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="11" t="s">
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+    <row r="33" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
+      <c r="BY33" s="21"/>
+      <c r="BZ33" s="21"/>
+      <c r="CA33" s="21"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
+      <c r="CD33" s="21"/>
+      <c r="CE33" s="21"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="21"/>
+      <c r="CQ33" s="21"/>
+      <c r="CR33" s="21"/>
+      <c r="CS33" s="21"/>
+      <c r="CT33" s="21"/>
+    </row>
+    <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+    </row>
+    <row r="37" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="20" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="1">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="4">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="4">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="4">
         <v>3</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="4">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="4">
         <v>4</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6" t="s">
+      <c r="E62" s="5"/>
+      <c r="F62" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="4">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="4">
         <v>5</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6" t="s">
+      <c r="E63" s="5"/>
+      <c r="F63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="4">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="4">
         <v>6</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6" t="s">
+      <c r="E64" s="5"/>
+      <c r="F64" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D51" s="1">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="1">
         <v>7</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D52" s="4">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="4">
         <v>8</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="4">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="4">
         <v>9</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="A37:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733E4EB-5672-42AA-8081-37BEC77216DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1984AEA-5EC1-4BB3-A4BD-E8C685324B8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:CT68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1984AEA-5EC1-4BB3-A4BD-E8C685324B8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CCCFB6-B8C7-48F5-B543-F79E64A57B56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
   </si>
   <si>
     <t>platformMG.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,6 +420,46 @@
   </si>
   <si>
     <t>rec_theme.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后汇总可以删除的css与js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animate.min.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery-1.10.1.min.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.animate1.0.2.min.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.min.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇游助手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,6 +636,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,11 +650,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +658,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +964,8 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>67</v>
+      <c r="A2" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -940,7 +976,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -948,7 +984,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -956,7 +992,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -964,7 +1000,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -972,13 +1008,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -986,7 +1022,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -994,13 +1030,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1010,13 +1046,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1026,157 +1062,157 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>68</v>
+      <c r="A27" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="D28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1196,20 +1232,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="77" max="98" width="9" style="21"/>
+    <col min="77" max="98" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1218,8 +1254,8 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>63</v>
+      <c r="A2" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -1228,31 +1264,31 @@
       <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="21"/>
-      <c r="CN2" s="21"/>
-      <c r="CO2" s="21"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="21"/>
-      <c r="CR2" s="21"/>
-      <c r="CS2" s="21"/>
-      <c r="CT2" s="21"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1262,31 +1298,31 @@
       <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BY3" s="21"/>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
-      <c r="CB3" s="21"/>
-      <c r="CC3" s="21"/>
-      <c r="CD3" s="21"/>
-      <c r="CE3" s="21"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="21"/>
-      <c r="CI3" s="21"/>
-      <c r="CJ3" s="21"/>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
-      <c r="CM3" s="21"/>
-      <c r="CN3" s="21"/>
-      <c r="CO3" s="21"/>
-      <c r="CP3" s="21"/>
-      <c r="CQ3" s="21"/>
-      <c r="CR3" s="21"/>
-      <c r="CS3" s="21"/>
-      <c r="CT3" s="21"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1294,343 +1330,343 @@
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="BY4" s="21"/>
-      <c r="BZ4" s="21"/>
-      <c r="CA4" s="21"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="21"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="21"/>
-      <c r="CF4" s="21"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="21"/>
-      <c r="CI4" s="21"/>
-      <c r="CJ4" s="21"/>
-      <c r="CK4" s="21"/>
-      <c r="CL4" s="21"/>
-      <c r="CM4" s="21"/>
-      <c r="CN4" s="21"/>
-      <c r="CO4" s="21"/>
-      <c r="CP4" s="21"/>
-      <c r="CQ4" s="21"/>
-      <c r="CR4" s="21"/>
-      <c r="CS4" s="21"/>
-      <c r="CT4" s="21"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="21"/>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="21"/>
-      <c r="CI5" s="21"/>
-      <c r="CJ5" s="21"/>
-      <c r="CK5" s="21"/>
-      <c r="CL5" s="21"/>
-      <c r="CM5" s="21"/>
-      <c r="CN5" s="21"/>
-      <c r="CO5" s="21"/>
-      <c r="CP5" s="21"/>
-      <c r="CQ5" s="21"/>
-      <c r="CR5" s="21"/>
-      <c r="CS5" s="21"/>
-      <c r="CT5" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
-      <c r="CQ6" s="21"/>
-      <c r="CR6" s="21"/>
-      <c r="CS6" s="21"/>
-      <c r="CT6" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="21"/>
-      <c r="CP7" s="21"/>
-      <c r="CQ7" s="21"/>
-      <c r="CR7" s="21"/>
-      <c r="CS7" s="21"/>
-      <c r="CT7" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21"/>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21"/>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21"/>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="21"/>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
+      <c r="D11" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="10" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
@@ -1640,9 +1676,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
@@ -1652,128 +1688,167 @@
     <row r="33" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BY33" s="21"/>
-      <c r="BZ33" s="21"/>
-      <c r="CA33" s="21"/>
-      <c r="CB33" s="21"/>
-      <c r="CC33" s="21"/>
-      <c r="CD33" s="21"/>
-      <c r="CE33" s="21"/>
-      <c r="CF33" s="21"/>
-      <c r="CG33" s="21"/>
-      <c r="CH33" s="21"/>
-      <c r="CI33" s="21"/>
-      <c r="CJ33" s="21"/>
-      <c r="CK33" s="21"/>
-      <c r="CL33" s="21"/>
-      <c r="CM33" s="21"/>
-      <c r="CN33" s="21"/>
-      <c r="CO33" s="21"/>
-      <c r="CP33" s="21"/>
-      <c r="CQ33" s="21"/>
-      <c r="CR33" s="21"/>
-      <c r="CS33" s="21"/>
-      <c r="CT33" s="21"/>
+      <c r="BY33" s="16"/>
+      <c r="BZ33" s="16"/>
+      <c r="CA33" s="16"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="16"/>
+      <c r="CG33" s="16"/>
+      <c r="CH33" s="16"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="16"/>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
     </row>
     <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="BY34" s="21"/>
-      <c r="BZ34" s="21"/>
-      <c r="CA34" s="21"/>
-      <c r="CB34" s="21"/>
-      <c r="CC34" s="21"/>
-      <c r="CD34" s="21"/>
-      <c r="CE34" s="21"/>
-      <c r="CF34" s="21"/>
-      <c r="CG34" s="21"/>
-      <c r="CH34" s="21"/>
-      <c r="CI34" s="21"/>
-      <c r="CJ34" s="21"/>
-      <c r="CK34" s="21"/>
-      <c r="CL34" s="21"/>
-      <c r="CM34" s="21"/>
-      <c r="CN34" s="21"/>
-      <c r="CO34" s="21"/>
-      <c r="CP34" s="21"/>
-      <c r="CQ34" s="21"/>
-      <c r="CR34" s="21"/>
-      <c r="CS34" s="21"/>
-      <c r="CT34" s="21"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
     </row>
     <row r="37" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D59" s="1">
         <v>1</v>
       </c>
@@ -1781,13 +1856,13 @@
         <v>24</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D60" s="4">
         <v>2</v>
       </c>
@@ -1801,7 +1876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D61" s="4">
         <v>3</v>
       </c>
@@ -1813,40 +1888,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D62" s="4">
         <v>4</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D63" s="4">
         <v>5</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D64" s="4">
         <v>6</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.2">
@@ -1854,13 +1929,13 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.2">
@@ -1868,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.2">
@@ -1883,10 +1958,10 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.2">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CCCFB6-B8C7-48F5-B543-F79E64A57B56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4F77B2-2A0A-4C60-93C8-8464A283DF61}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,8 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,6 +654,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -964,7 +957,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -976,7 +969,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -984,7 +977,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -992,7 +985,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1000,7 +993,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1008,13 +1001,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1022,7 +1015,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1030,13 +1023,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1046,13 +1039,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1055,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1065,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
@@ -1084,43 +1077,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
@@ -1130,7 +1123,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
@@ -1140,7 +1133,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="11"/>
@@ -1150,7 +1143,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
         <v>68</v>
       </c>
@@ -1162,7 +1155,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1170,49 +1163,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1232,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1238,7 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="77" max="98" width="9" style="16"/>
+    <col min="77" max="98" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1254,241 +1247,241 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="16"/>
-      <c r="CM3" s="16"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
-      <c r="CQ3" s="16"/>
-      <c r="CR3" s="16"/>
-      <c r="CS3" s="16"/>
-      <c r="CT3" s="16"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
-      <c r="CJ4" s="16"/>
-      <c r="CK4" s="16"/>
-      <c r="CL4" s="16"/>
-      <c r="CM4" s="16"/>
-      <c r="CN4" s="16"/>
-      <c r="CO4" s="16"/>
-      <c r="CP4" s="16"/>
-      <c r="CQ4" s="16"/>
-      <c r="CR4" s="16"/>
-      <c r="CS4" s="16"/>
-      <c r="CT4" s="16"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16"/>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16"/>
-      <c r="CS7" s="16"/>
-      <c r="CT7" s="16"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="14"/>
+      <c r="CJ7" s="14"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="14"/>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="14"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
@@ -1496,177 +1489,177 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1669,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="11" t="s">
         <v>109</v>
       </c>
@@ -1696,28 +1689,28 @@
       <c r="D33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BY33" s="16"/>
-      <c r="BZ33" s="16"/>
-      <c r="CA33" s="16"/>
-      <c r="CB33" s="16"/>
-      <c r="CC33" s="16"/>
-      <c r="CD33" s="16"/>
-      <c r="CE33" s="16"/>
-      <c r="CF33" s="16"/>
-      <c r="CG33" s="16"/>
-      <c r="CH33" s="16"/>
-      <c r="CI33" s="16"/>
-      <c r="CJ33" s="16"/>
-      <c r="CK33" s="16"/>
-      <c r="CL33" s="16"/>
-      <c r="CM33" s="16"/>
-      <c r="CN33" s="16"/>
-      <c r="CO33" s="16"/>
-      <c r="CP33" s="16"/>
-      <c r="CQ33" s="16"/>
-      <c r="CR33" s="16"/>
-      <c r="CS33" s="16"/>
-      <c r="CT33" s="16"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
+      <c r="CA33" s="14"/>
+      <c r="CB33" s="14"/>
+      <c r="CC33" s="14"/>
+      <c r="CD33" s="14"/>
+      <c r="CE33" s="14"/>
+      <c r="CF33" s="14"/>
+      <c r="CG33" s="14"/>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="14"/>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="14"/>
+      <c r="CL33" s="14"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="14"/>
+      <c r="CO33" s="14"/>
+      <c r="CP33" s="14"/>
+      <c r="CQ33" s="14"/>
+      <c r="CR33" s="14"/>
+      <c r="CS33" s="14"/>
+      <c r="CT33" s="14"/>
     </row>
     <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
@@ -1728,67 +1721,67 @@
       <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="16"/>
-      <c r="CF34" s="16"/>
-      <c r="CG34" s="16"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="16"/>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
+      <c r="BY34" s="14"/>
+      <c r="BZ34" s="14"/>
+      <c r="CA34" s="14"/>
+      <c r="CB34" s="14"/>
+      <c r="CC34" s="14"/>
+      <c r="CD34" s="14"/>
+      <c r="CE34" s="14"/>
+      <c r="CF34" s="14"/>
+      <c r="CG34" s="14"/>
+      <c r="CH34" s="14"/>
+      <c r="CI34" s="14"/>
+      <c r="CJ34" s="14"/>
+      <c r="CK34" s="14"/>
+      <c r="CL34" s="14"/>
+      <c r="CM34" s="14"/>
+      <c r="CN34" s="14"/>
+      <c r="CO34" s="14"/>
+      <c r="CP34" s="14"/>
+      <c r="CQ34" s="14"/>
+      <c r="CR34" s="14"/>
+      <c r="CS34" s="14"/>
+      <c r="CT34" s="14"/>
     </row>
     <row r="37" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4F77B2-2A0A-4C60-93C8-8464A283DF61}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D96B58-A916-48BE-9963-F93A0A176BFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,6 +634,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,7 +662,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -938,7 +945,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,7 +964,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -969,7 +976,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -977,7 +984,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -985,7 +992,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -993,7 +1000,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1001,13 +1008,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1015,7 +1022,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1023,13 +1030,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1039,13 +1046,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1062,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
@@ -1065,7 +1072,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
@@ -1077,43 +1084,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
@@ -1123,7 +1130,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
@@ -1133,7 +1140,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="11"/>
@@ -1143,7 +1150,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="11" t="s">
         <v>68</v>
       </c>
@@ -1155,7 +1162,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1163,49 +1170,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1225,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1245,7 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="77" max="98" width="9" style="14"/>
+    <col min="77" max="98" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1247,241 +1254,241 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="BY4" s="14"/>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14"/>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14"/>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14"/>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14"/>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="14"/>
-      <c r="CS5" s="14"/>
-      <c r="CT5" s="14"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BY6" s="14"/>
-      <c r="BZ6" s="14"/>
-      <c r="CA6" s="14"/>
-      <c r="CB6" s="14"/>
-      <c r="CC6" s="14"/>
-      <c r="CD6" s="14"/>
-      <c r="CE6" s="14"/>
-      <c r="CF6" s="14"/>
-      <c r="CG6" s="14"/>
-      <c r="CH6" s="14"/>
-      <c r="CI6" s="14"/>
-      <c r="CJ6" s="14"/>
-      <c r="CK6" s="14"/>
-      <c r="CL6" s="14"/>
-      <c r="CM6" s="14"/>
-      <c r="CN6" s="14"/>
-      <c r="CO6" s="14"/>
-      <c r="CP6" s="14"/>
-      <c r="CQ6" s="14"/>
-      <c r="CR6" s="14"/>
-      <c r="CS6" s="14"/>
-      <c r="CT6" s="14"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BY7" s="14"/>
-      <c r="BZ7" s="14"/>
-      <c r="CA7" s="14"/>
-      <c r="CB7" s="14"/>
-      <c r="CC7" s="14"/>
-      <c r="CD7" s="14"/>
-      <c r="CE7" s="14"/>
-      <c r="CF7" s="14"/>
-      <c r="CG7" s="14"/>
-      <c r="CH7" s="14"/>
-      <c r="CI7" s="14"/>
-      <c r="CJ7" s="14"/>
-      <c r="CK7" s="14"/>
-      <c r="CL7" s="14"/>
-      <c r="CM7" s="14"/>
-      <c r="CN7" s="14"/>
-      <c r="CO7" s="14"/>
-      <c r="CP7" s="14"/>
-      <c r="CQ7" s="14"/>
-      <c r="CR7" s="14"/>
-      <c r="CS7" s="14"/>
-      <c r="CT7" s="14"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14"/>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14"/>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
-      <c r="CP9" s="14"/>
-      <c r="CQ9" s="14"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="14"/>
-      <c r="CT9" s="14"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
@@ -1489,177 +1496,177 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
@@ -1669,7 +1676,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>109</v>
       </c>
@@ -1689,28 +1696,28 @@
       <c r="D33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BY33" s="14"/>
-      <c r="BZ33" s="14"/>
-      <c r="CA33" s="14"/>
-      <c r="CB33" s="14"/>
-      <c r="CC33" s="14"/>
-      <c r="CD33" s="14"/>
-      <c r="CE33" s="14"/>
-      <c r="CF33" s="14"/>
-      <c r="CG33" s="14"/>
-      <c r="CH33" s="14"/>
-      <c r="CI33" s="14"/>
-      <c r="CJ33" s="14"/>
-      <c r="CK33" s="14"/>
-      <c r="CL33" s="14"/>
-      <c r="CM33" s="14"/>
-      <c r="CN33" s="14"/>
-      <c r="CO33" s="14"/>
-      <c r="CP33" s="14"/>
-      <c r="CQ33" s="14"/>
-      <c r="CR33" s="14"/>
-      <c r="CS33" s="14"/>
-      <c r="CT33" s="14"/>
+      <c r="BY33" s="16"/>
+      <c r="BZ33" s="16"/>
+      <c r="CA33" s="16"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="16"/>
+      <c r="CG33" s="16"/>
+      <c r="CH33" s="16"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="16"/>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
     </row>
     <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
@@ -1721,67 +1728,67 @@
       <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BY34" s="14"/>
-      <c r="BZ34" s="14"/>
-      <c r="CA34" s="14"/>
-      <c r="CB34" s="14"/>
-      <c r="CC34" s="14"/>
-      <c r="CD34" s="14"/>
-      <c r="CE34" s="14"/>
-      <c r="CF34" s="14"/>
-      <c r="CG34" s="14"/>
-      <c r="CH34" s="14"/>
-      <c r="CI34" s="14"/>
-      <c r="CJ34" s="14"/>
-      <c r="CK34" s="14"/>
-      <c r="CL34" s="14"/>
-      <c r="CM34" s="14"/>
-      <c r="CN34" s="14"/>
-      <c r="CO34" s="14"/>
-      <c r="CP34" s="14"/>
-      <c r="CQ34" s="14"/>
-      <c r="CR34" s="14"/>
-      <c r="CS34" s="14"/>
-      <c r="CT34" s="14"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
     </row>
     <row r="37" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D96B58-A916-48BE-9963-F93A0A176BFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B7191-4271-4019-88AF-09342618A1F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:CT68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B7191-4271-4019-88AF-09342618A1F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0942DD-954F-40E6-BD7E-1773CAA46311}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
     <sheet name="PC-html文件命名" sheetId="3" r:id="rId2"/>
-    <sheet name="mob站命名规范" sheetId="1" r:id="rId3"/>
+    <sheet name="欧盟27个成员国（除去英国）" sheetId="5" r:id="rId3"/>
+    <sheet name="mob站命名规范" sheetId="1" r:id="rId4"/>
+    <sheet name="PC广告平台" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +157,6 @@
   </si>
   <si>
     <t>广告平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platformMG.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,7 +457,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奇游助手</t>
+    <t>js命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slideshow文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有关于轮播图的文件都放置在slideshow文件夹下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后可以删除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>意大利 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>荷兰 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>比利时 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>卢森堡 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>联邦德国 ( 1950年 )以上这6个是创始成员国，</t>
+  </si>
+  <si>
+    <t>爱尔兰 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>丹麦 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>英国 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>希腊 ( 1981年 )、</t>
+  </si>
+  <si>
+    <t>葡萄牙 ( 1986年 )、</t>
+  </si>
+  <si>
+    <t>西班牙 ( 1986年 )、</t>
+  </si>
+  <si>
+    <t>奥地利 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>芬兰 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>瑞典 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>波兰 ( 2004年 ）、</t>
+  </si>
+  <si>
+    <t>拉脱维亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>立陶宛 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>爱沙尼亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>匈牙利 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>捷克 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>斯洛伐克 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>马耳他 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>塞浦路斯 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>保加利亚 ( 2007年 )、</t>
+  </si>
+  <si>
+    <t>罗马尼亚 ( 2007年 ）、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">克罗地亚（2013年） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,11 +776,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +1094,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,7 +1114,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -1064,23 +1213,23 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1122,43 +1271,43 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1166,7 +1315,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1230,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT68"/>
+  <dimension ref="A1:CT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="AJ64" workbookViewId="0">
+      <selection activeCell="AJ65" sqref="AJ65:AK92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1394,9 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="9" style="27"/>
+    <col min="9" max="9" width="38.125" style="27" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="29" customWidth="1"/>
     <col min="77" max="98" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -1255,7 +1407,7 @@
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -1264,6 +1416,9 @@
       <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="AK2" s="30"/>
       <c r="BY2" s="16"/>
       <c r="BZ2" s="16"/>
       <c r="CA2" s="16"/>
@@ -1298,6 +1453,9 @@
       <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="AK3" s="30"/>
       <c r="BY3" s="16"/>
       <c r="BZ3" s="16"/>
       <c r="CA3" s="16"/>
@@ -1330,6 +1488,9 @@
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="AK4" s="30"/>
       <c r="BY4" s="16"/>
       <c r="BZ4" s="16"/>
       <c r="CA4" s="16"/>
@@ -1357,11 +1518,14 @@
       <c r="A5" s="23"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="AK5" s="30"/>
       <c r="BY5" s="16"/>
       <c r="BZ5" s="16"/>
       <c r="CA5" s="16"/>
@@ -1389,11 +1553,14 @@
       <c r="A6" s="23"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="AK6" s="30"/>
       <c r="BY6" s="16"/>
       <c r="BZ6" s="16"/>
       <c r="CA6" s="16"/>
@@ -1421,11 +1588,14 @@
       <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="AK7" s="30"/>
       <c r="BY7" s="16"/>
       <c r="BZ7" s="16"/>
       <c r="CA7" s="16"/>
@@ -1453,17 +1623,20 @@
       <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="AK9" s="30"/>
       <c r="BY9" s="16"/>
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
@@ -1490,10 +1663,10 @@
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
@@ -1502,27 +1675,27 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
@@ -1565,415 +1738,460 @@
       <c r="A20" s="23"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>97</v>
+      <c r="D27" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="17"/>
       <c r="C29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
+    <row r="38" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
+      <c r="C38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="E38" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK38" s="31"/>
+      <c r="BY38" s="16"/>
+      <c r="BZ38" s="16"/>
+      <c r="CA38" s="16"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="16"/>
+      <c r="CG38" s="16"/>
+      <c r="CH38" s="16"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="16"/>
+      <c r="CN38" s="16"/>
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+    </row>
+    <row r="39" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY33" s="16"/>
-      <c r="BZ33" s="16"/>
-      <c r="CA33" s="16"/>
-      <c r="CB33" s="16"/>
-      <c r="CC33" s="16"/>
-      <c r="CD33" s="16"/>
-      <c r="CE33" s="16"/>
-      <c r="CF33" s="16"/>
-      <c r="CG33" s="16"/>
-      <c r="CH33" s="16"/>
-      <c r="CI33" s="16"/>
-      <c r="CJ33" s="16"/>
-      <c r="CK33" s="16"/>
-      <c r="CL33" s="16"/>
-      <c r="CM33" s="16"/>
-      <c r="CN33" s="16"/>
-      <c r="CO33" s="16"/>
-      <c r="CP33" s="16"/>
-      <c r="CQ33" s="16"/>
-      <c r="CR33" s="16"/>
-      <c r="CS33" s="16"/>
-      <c r="CT33" s="16"/>
-    </row>
-    <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="16"/>
-      <c r="CF34" s="16"/>
-      <c r="CG34" s="16"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="16"/>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
-    </row>
-    <row r="37" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="E39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK39" s="31"/>
+      <c r="BY39" s="16"/>
+      <c r="BZ39" s="16"/>
+      <c r="CA39" s="16"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="16"/>
+      <c r="CF39" s="16"/>
+      <c r="CG39" s="16"/>
+      <c r="CH39" s="16"/>
+      <c r="CI39" s="16"/>
+      <c r="CJ39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="16"/>
+      <c r="CM39" s="16"/>
+      <c r="CN39" s="16"/>
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+    </row>
+    <row r="42" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D54" t="s">
         <v>101</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D59" s="1">
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D67" s="4">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D68" s="4">
+        <v>5</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D69" s="4">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D62" s="4">
-        <v>4</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D63" s="4">
-        <v>5</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="4">
-        <v>6</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="G70" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="1">
-        <v>7</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="4">
+    <row r="71" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D71" s="4">
         <v>8</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="6" t="s">
+    </row>
+    <row r="72" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D72" s="4">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D67" s="4">
-        <v>9</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+    </row>
+    <row r="73" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="A42:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,6 +2200,249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC24BD4-121F-4094-BE55-5F56588C6BB3}">
+  <dimension ref="A2:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>19</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>22</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2059,4 +2520,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E9682-8462-4F95-BA20-A36E1EE779FE}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0942DD-954F-40E6-BD7E-1773CAA46311}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A208CE-7C21-4441-8FD0-D281EA36EE0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备品牌分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_brand.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性别比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,14 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职业比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_job.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,23 +385,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MG官方报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rec_win.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_official.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_theme.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,27 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -810,6 +757,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,7 +1062,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1081,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1125,7 +1093,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1133,7 +1101,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1141,7 +1109,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1149,7 +1117,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1157,13 +1125,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1171,7 +1139,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1179,13 +1147,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1195,13 +1163,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1189,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1233,43 +1201,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1279,7 +1247,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1257,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1299,7 +1267,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1311,7 +1279,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1319,49 +1287,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1379,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT73"/>
+  <dimension ref="A1:CT69"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ64" workbookViewId="0">
-      <selection activeCell="AJ65" sqref="AJ65:AK92"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,9 +1362,9 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="27"/>
-    <col min="9" max="9" width="38.125" style="27" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9" style="20"/>
+    <col min="9" max="9" width="38.125" style="20" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="22" customWidth="1"/>
     <col min="77" max="98" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -1406,7 +1374,7 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1416,9 +1384,9 @@
       <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="AK2" s="30"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="AK2" s="23"/>
       <c r="BY2" s="16"/>
       <c r="BZ2" s="16"/>
       <c r="CA2" s="16"/>
@@ -1443,7 +1411,7 @@
       <c r="CT2" s="16"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1453,9 +1421,9 @@
       <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="AK3" s="30"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="AK3" s="23"/>
       <c r="BY3" s="16"/>
       <c r="BZ3" s="16"/>
       <c r="CA3" s="16"/>
@@ -1480,7 +1448,7 @@
       <c r="CT3" s="16"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1488,9 +1456,9 @@
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="AK4" s="30"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="AK4" s="23"/>
       <c r="BY4" s="16"/>
       <c r="BZ4" s="16"/>
       <c r="CA4" s="16"/>
@@ -1515,7 +1483,7 @@
       <c r="CT4" s="16"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1523,9 +1491,9 @@
       <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="AK5" s="30"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="AK5" s="23"/>
       <c r="BY5" s="16"/>
       <c r="BZ5" s="16"/>
       <c r="CA5" s="16"/>
@@ -1550,7 +1518,7 @@
       <c r="CT5" s="16"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1558,9 +1526,9 @@
       <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="AK6" s="30"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="AK6" s="23"/>
       <c r="BY6" s="16"/>
       <c r="BZ6" s="16"/>
       <c r="CA6" s="16"/>
@@ -1585,7 +1553,7 @@
       <c r="CT6" s="16"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1593,9 +1561,9 @@
       <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="AK7" s="30"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="AK7" s="23"/>
       <c r="BY7" s="16"/>
       <c r="BZ7" s="16"/>
       <c r="CA7" s="16"/>
@@ -1620,13 +1588,13 @@
       <c r="CT7" s="16"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -1634,9 +1602,9 @@
       <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="AK9" s="30"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="AK9" s="23"/>
       <c r="BY9" s="16"/>
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
@@ -1661,7 +1629,7 @@
       <c r="CT9" s="16"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1637,7 @@
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1647,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>75</v>
@@ -1689,53 +1657,53 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>79</v>
@@ -1745,7 +1713,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>81</v>
@@ -1755,443 +1723,403 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="10" t="s">
-        <v>87</v>
+      <c r="A25" s="35"/>
+      <c r="B25" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="17" t="s">
-        <v>92</v>
+      <c r="A27" s="35"/>
+      <c r="B27" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="A28" s="35"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="A29" s="35"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="A31" s="35"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="11" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+    <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK38" s="31"/>
-      <c r="BY38" s="16"/>
-      <c r="BZ38" s="16"/>
-      <c r="CA38" s="16"/>
-      <c r="CB38" s="16"/>
-      <c r="CC38" s="16"/>
-      <c r="CD38" s="16"/>
-      <c r="CE38" s="16"/>
-      <c r="CF38" s="16"/>
-      <c r="CG38" s="16"/>
-      <c r="CH38" s="16"/>
-      <c r="CI38" s="16"/>
-      <c r="CJ38" s="16"/>
-      <c r="CK38" s="16"/>
-      <c r="CL38" s="16"/>
-      <c r="CM38" s="16"/>
-      <c r="CN38" s="16"/>
-      <c r="CO38" s="16"/>
-      <c r="CP38" s="16"/>
-      <c r="CQ38" s="16"/>
-      <c r="CR38" s="16"/>
-      <c r="CS38" s="16"/>
-      <c r="CT38" s="16"/>
-    </row>
-    <row r="39" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
+      <c r="E34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK34" s="24"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
+    </row>
+    <row r="35" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK39" s="31"/>
-      <c r="BY39" s="16"/>
-      <c r="BZ39" s="16"/>
-      <c r="CA39" s="16"/>
-      <c r="CB39" s="16"/>
-      <c r="CC39" s="16"/>
-      <c r="CD39" s="16"/>
-      <c r="CE39" s="16"/>
-      <c r="CF39" s="16"/>
-      <c r="CG39" s="16"/>
-      <c r="CH39" s="16"/>
-      <c r="CI39" s="16"/>
-      <c r="CJ39" s="16"/>
-      <c r="CK39" s="16"/>
-      <c r="CL39" s="16"/>
-      <c r="CM39" s="16"/>
-      <c r="CN39" s="16"/>
-      <c r="CO39" s="16"/>
-      <c r="CP39" s="16"/>
-      <c r="CQ39" s="16"/>
-      <c r="CR39" s="16"/>
-      <c r="CS39" s="16"/>
-      <c r="CT39" s="16"/>
-    </row>
-    <row r="42" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="E35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK35" s="24"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+    </row>
+    <row r="38" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A42" s="36"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-    </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>107</v>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="4">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="4">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>25</v>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D66" s="4">
-        <v>3</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>30</v>
+      <c r="D66" s="1">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F67" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D68" s="4">
-        <v>5</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D69" s="4">
-        <v>6</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D70" s="1">
-        <v>7</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D71" s="4">
-        <v>8</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D72" s="4">
-        <v>9</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC24BD4-121F-4094-BE55-5F56588C6BB3}">
   <dimension ref="A2:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2213,227 +2141,227 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <v>14</v>
-      </c>
-      <c r="B15" s="36" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
-        <v>19</v>
-      </c>
-      <c r="B20" s="36" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="36" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
-        <v>24</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
-        <v>25</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>27</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
-        <v>28</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2538,18 +2466,18 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A208CE-7C21-4441-8FD0-D281EA36EE0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90CAB2-310B-4B57-B885-7DC746E78431}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="137">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,7 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,7 +1080,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1093,7 +1092,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1101,7 +1100,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1109,7 +1108,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1117,7 +1116,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1125,13 +1124,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1139,7 +1138,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1147,13 +1146,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1163,13 +1162,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1179,7 +1178,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1188,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1201,43 +1200,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1247,7 +1246,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1256,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1267,7 +1266,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1279,7 +1278,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1287,49 +1286,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1349,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1362,10 +1361,10 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="38.125" style="20" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="22" customWidth="1"/>
-    <col min="77" max="98" width="9" style="16"/>
+    <col min="8" max="8" width="9" style="19"/>
+    <col min="9" max="9" width="38.125" style="19" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="21" customWidth="1"/>
+    <col min="77" max="98" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1374,280 +1373,280 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="AK2" s="23"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="AK2" s="22"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="AK3" s="23"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="16"/>
-      <c r="CM3" s="16"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
-      <c r="CQ3" s="16"/>
-      <c r="CR3" s="16"/>
-      <c r="CS3" s="16"/>
-      <c r="CT3" s="16"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="AK3" s="22"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="AK4" s="23"/>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
-      <c r="CJ4" s="16"/>
-      <c r="CK4" s="16"/>
-      <c r="CL4" s="16"/>
-      <c r="CM4" s="16"/>
-      <c r="CN4" s="16"/>
-      <c r="CO4" s="16"/>
-      <c r="CP4" s="16"/>
-      <c r="CQ4" s="16"/>
-      <c r="CR4" s="16"/>
-      <c r="CS4" s="16"/>
-      <c r="CT4" s="16"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="AK4" s="22"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="15"/>
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="15"/>
+      <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="AK5" s="23"/>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="AK5" s="22"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15"/>
+      <c r="CS5" s="15"/>
+      <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="AK6" s="23"/>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="AK6" s="22"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15"/>
+      <c r="CS6" s="15"/>
+      <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="AK7" s="23"/>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16"/>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16"/>
-      <c r="CS7" s="16"/>
-      <c r="CT7" s="16"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="AK7" s="22"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="15"/>
+      <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="AK9" s="23"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="AK9" s="22"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15"/>
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15"/>
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>75</v>
@@ -1657,43 +1656,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>77</v>
@@ -1703,7 +1702,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>79</v>
@@ -1713,7 +1712,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>81</v>
@@ -1723,13 +1722,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1741,7 +1740,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
         <v>86</v>
@@ -1751,8 +1750,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1763,13 +1762,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1781,37 +1780,37 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1834,29 +1833,29 @@
       <c r="E34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK34" s="24"/>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="16"/>
-      <c r="CF34" s="16"/>
-      <c r="CG34" s="16"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="16"/>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
+      <c r="AK34" s="23"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="15"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="15"/>
+      <c r="CQ34" s="15"/>
+      <c r="CR34" s="15"/>
+      <c r="CS34" s="15"/>
+      <c r="CT34" s="15"/>
     </row>
     <row r="35" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
@@ -1870,68 +1869,68 @@
       <c r="E35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="24"/>
-      <c r="BY35" s="16"/>
-      <c r="BZ35" s="16"/>
-      <c r="CA35" s="16"/>
-      <c r="CB35" s="16"/>
-      <c r="CC35" s="16"/>
-      <c r="CD35" s="16"/>
-      <c r="CE35" s="16"/>
-      <c r="CF35" s="16"/>
-      <c r="CG35" s="16"/>
-      <c r="CH35" s="16"/>
-      <c r="CI35" s="16"/>
-      <c r="CJ35" s="16"/>
-      <c r="CK35" s="16"/>
-      <c r="CL35" s="16"/>
-      <c r="CM35" s="16"/>
-      <c r="CN35" s="16"/>
-      <c r="CO35" s="16"/>
-      <c r="CP35" s="16"/>
-      <c r="CQ35" s="16"/>
-      <c r="CR35" s="16"/>
-      <c r="CS35" s="16"/>
-      <c r="CT35" s="16"/>
+      <c r="AK35" s="23"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="15"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="15"/>
+      <c r="CF35" s="15"/>
+      <c r="CG35" s="15"/>
+      <c r="CH35" s="15"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="15"/>
+      <c r="CK35" s="15"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
+      <c r="CN35" s="15"/>
+      <c r="CO35" s="15"/>
+      <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
+      <c r="CR35" s="15"/>
+      <c r="CS35" s="15"/>
+      <c r="CT35" s="15"/>
     </row>
     <row r="38" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2141,226 +2140,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>135</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90CAB2-310B-4B57-B885-7DC746E78431}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF5007-9E07-48C1-A320-91F336DF755E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,6 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1080,7 +1081,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1092,7 +1093,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1100,7 +1101,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1108,7 +1109,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1116,7 +1117,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1124,13 +1125,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1138,7 +1139,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1146,13 +1147,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1162,13 +1163,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1188,7 +1189,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1200,43 +1201,43 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1246,7 +1247,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1256,7 +1257,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1266,7 +1267,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1278,7 +1279,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1286,49 +1287,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1349,7 +1350,7 @@
   <dimension ref="A1:CT69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,10 +1362,10 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="19"/>
-    <col min="9" max="9" width="38.125" style="19" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="21" customWidth="1"/>
-    <col min="77" max="98" width="9" style="15"/>
+    <col min="8" max="8" width="9" style="20"/>
+    <col min="9" max="9" width="38.125" style="20" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="22" customWidth="1"/>
+    <col min="77" max="98" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1373,262 +1374,262 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="AK2" s="22"/>
-      <c r="BY2" s="15"/>
-      <c r="BZ2" s="15"/>
-      <c r="CA2" s="15"/>
-      <c r="CB2" s="15"/>
-      <c r="CC2" s="15"/>
-      <c r="CD2" s="15"/>
-      <c r="CE2" s="15"/>
-      <c r="CF2" s="15"/>
-      <c r="CG2" s="15"/>
-      <c r="CH2" s="15"/>
-      <c r="CI2" s="15"/>
-      <c r="CJ2" s="15"/>
-      <c r="CK2" s="15"/>
-      <c r="CL2" s="15"/>
-      <c r="CM2" s="15"/>
-      <c r="CN2" s="15"/>
-      <c r="CO2" s="15"/>
-      <c r="CP2" s="15"/>
-      <c r="CQ2" s="15"/>
-      <c r="CR2" s="15"/>
-      <c r="CS2" s="15"/>
-      <c r="CT2" s="15"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="AK2" s="23"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="AK3" s="22"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="15"/>
-      <c r="CC3" s="15"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
-      <c r="CI3" s="15"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="15"/>
-      <c r="CL3" s="15"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="15"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="15"/>
-      <c r="CQ3" s="15"/>
-      <c r="CR3" s="15"/>
-      <c r="CS3" s="15"/>
-      <c r="CT3" s="15"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="AK3" s="23"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="AK4" s="22"/>
-      <c r="BY4" s="15"/>
-      <c r="BZ4" s="15"/>
-      <c r="CA4" s="15"/>
-      <c r="CB4" s="15"/>
-      <c r="CC4" s="15"/>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="15"/>
-      <c r="CF4" s="15"/>
-      <c r="CG4" s="15"/>
-      <c r="CH4" s="15"/>
-      <c r="CI4" s="15"/>
-      <c r="CJ4" s="15"/>
-      <c r="CK4" s="15"/>
-      <c r="CL4" s="15"/>
-      <c r="CM4" s="15"/>
-      <c r="CN4" s="15"/>
-      <c r="CO4" s="15"/>
-      <c r="CP4" s="15"/>
-      <c r="CQ4" s="15"/>
-      <c r="CR4" s="15"/>
-      <c r="CS4" s="15"/>
-      <c r="CT4" s="15"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="AK4" s="23"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="AK5" s="22"/>
-      <c r="BY5" s="15"/>
-      <c r="BZ5" s="15"/>
-      <c r="CA5" s="15"/>
-      <c r="CB5" s="15"/>
-      <c r="CC5" s="15"/>
-      <c r="CD5" s="15"/>
-      <c r="CE5" s="15"/>
-      <c r="CF5" s="15"/>
-      <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
-      <c r="CI5" s="15"/>
-      <c r="CJ5" s="15"/>
-      <c r="CK5" s="15"/>
-      <c r="CL5" s="15"/>
-      <c r="CM5" s="15"/>
-      <c r="CN5" s="15"/>
-      <c r="CO5" s="15"/>
-      <c r="CP5" s="15"/>
-      <c r="CQ5" s="15"/>
-      <c r="CR5" s="15"/>
-      <c r="CS5" s="15"/>
-      <c r="CT5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="AK5" s="23"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="AK6" s="22"/>
-      <c r="BY6" s="15"/>
-      <c r="BZ6" s="15"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="15"/>
-      <c r="CC6" s="15"/>
-      <c r="CD6" s="15"/>
-      <c r="CE6" s="15"/>
-      <c r="CF6" s="15"/>
-      <c r="CG6" s="15"/>
-      <c r="CH6" s="15"/>
-      <c r="CI6" s="15"/>
-      <c r="CJ6" s="15"/>
-      <c r="CK6" s="15"/>
-      <c r="CL6" s="15"/>
-      <c r="CM6" s="15"/>
-      <c r="CN6" s="15"/>
-      <c r="CO6" s="15"/>
-      <c r="CP6" s="15"/>
-      <c r="CQ6" s="15"/>
-      <c r="CR6" s="15"/>
-      <c r="CS6" s="15"/>
-      <c r="CT6" s="15"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="AK6" s="23"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="AK7" s="22"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="15"/>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="15"/>
-      <c r="CJ7" s="15"/>
-      <c r="CK7" s="15"/>
-      <c r="CL7" s="15"/>
-      <c r="CM7" s="15"/>
-      <c r="CN7" s="15"/>
-      <c r="CO7" s="15"/>
-      <c r="CP7" s="15"/>
-      <c r="CQ7" s="15"/>
-      <c r="CR7" s="15"/>
-      <c r="CS7" s="15"/>
-      <c r="CT7" s="15"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="AK7" s="23"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="AK9" s="22"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15"/>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15"/>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="15"/>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="AK9" s="23"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1636,17 +1637,17 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>75</v>
@@ -1656,43 +1657,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>77</v>
@@ -1702,7 +1703,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
         <v>79</v>
@@ -1712,7 +1713,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>81</v>
@@ -1722,13 +1723,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1740,7 +1741,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
         <v>86</v>
@@ -1750,8 +1751,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1762,13 +1763,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1780,37 +1781,37 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1833,29 +1834,29 @@
       <c r="E34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK34" s="23"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="15"/>
-      <c r="CA34" s="15"/>
-      <c r="CB34" s="15"/>
-      <c r="CC34" s="15"/>
-      <c r="CD34" s="15"/>
-      <c r="CE34" s="15"/>
-      <c r="CF34" s="15"/>
-      <c r="CG34" s="15"/>
-      <c r="CH34" s="15"/>
-      <c r="CI34" s="15"/>
-      <c r="CJ34" s="15"/>
-      <c r="CK34" s="15"/>
-      <c r="CL34" s="15"/>
-      <c r="CM34" s="15"/>
-      <c r="CN34" s="15"/>
-      <c r="CO34" s="15"/>
-      <c r="CP34" s="15"/>
-      <c r="CQ34" s="15"/>
-      <c r="CR34" s="15"/>
-      <c r="CS34" s="15"/>
-      <c r="CT34" s="15"/>
+      <c r="AK34" s="24"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
     </row>
     <row r="35" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
@@ -1869,68 +1870,68 @@
       <c r="E35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="23"/>
-      <c r="BY35" s="15"/>
-      <c r="BZ35" s="15"/>
-      <c r="CA35" s="15"/>
-      <c r="CB35" s="15"/>
-      <c r="CC35" s="15"/>
-      <c r="CD35" s="15"/>
-      <c r="CE35" s="15"/>
-      <c r="CF35" s="15"/>
-      <c r="CG35" s="15"/>
-      <c r="CH35" s="15"/>
-      <c r="CI35" s="15"/>
-      <c r="CJ35" s="15"/>
-      <c r="CK35" s="15"/>
-      <c r="CL35" s="15"/>
-      <c r="CM35" s="15"/>
-      <c r="CN35" s="15"/>
-      <c r="CO35" s="15"/>
-      <c r="CP35" s="15"/>
-      <c r="CQ35" s="15"/>
-      <c r="CR35" s="15"/>
-      <c r="CS35" s="15"/>
-      <c r="CT35" s="15"/>
+      <c r="AK35" s="24"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
     </row>
     <row r="38" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2140,226 +2141,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>135</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF5007-9E07-48C1-A320-91F336DF755E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B64ABA3-C514-4B51-8B9E-0AF8F0523351}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
     <sheet name="PC-html文件命名" sheetId="3" r:id="rId2"/>
-    <sheet name="欧盟27个成员国（除去英国）" sheetId="5" r:id="rId3"/>
-    <sheet name="mob站命名规范" sheetId="1" r:id="rId4"/>
-    <sheet name="PC广告平台" sheetId="4" r:id="rId5"/>
+    <sheet name="招聘命名ID" sheetId="6" r:id="rId3"/>
+    <sheet name="欧盟27个成员国（除去英国）" sheetId="5" r:id="rId4"/>
+    <sheet name="mob站命名规范" sheetId="1" r:id="rId5"/>
+    <sheet name="PC广告平台" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,99 +450,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>法国 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>意大利 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>荷兰 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>比利时 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>卢森堡 ( 1950年 )、</t>
+  </si>
+  <si>
+    <t>联邦德国 ( 1950年 )以上这6个是创始成员国，</t>
+  </si>
+  <si>
+    <t>爱尔兰 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>丹麦 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>英国 ( 1973年 )、</t>
+  </si>
+  <si>
+    <t>希腊 ( 1981年 )、</t>
+  </si>
+  <si>
+    <t>葡萄牙 ( 1986年 )、</t>
+  </si>
+  <si>
+    <t>西班牙 ( 1986年 )、</t>
+  </si>
+  <si>
+    <t>奥地利 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>芬兰 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>瑞典 ( 1995年 )、</t>
+  </si>
+  <si>
+    <t>波兰 ( 2004年 ）、</t>
+  </si>
+  <si>
+    <t>拉脱维亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>立陶宛 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>爱沙尼亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>匈牙利 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>捷克 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>斯洛伐克 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>马耳他 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>塞浦路斯 ( 2004年 )、</t>
+  </si>
+  <si>
+    <t>保加利亚 ( 2007年 )、</t>
+  </si>
+  <si>
+    <t>罗马尼亚 ( 2007年 ）、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">克罗地亚（2013年） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商务合作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cooperation.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法国 ( 1950年 )、</t>
-  </si>
-  <si>
-    <t>意大利 ( 1950年 )、</t>
-  </si>
-  <si>
-    <t>荷兰 ( 1950年 )、</t>
-  </si>
-  <si>
-    <t>比利时 ( 1950年 )、</t>
-  </si>
-  <si>
-    <t>卢森堡 ( 1950年 )、</t>
-  </si>
-  <si>
-    <t>联邦德国 ( 1950年 )以上这6个是创始成员国，</t>
-  </si>
-  <si>
-    <t>爱尔兰 ( 1973年 )、</t>
-  </si>
-  <si>
-    <t>丹麦 ( 1973年 )、</t>
-  </si>
-  <si>
-    <t>英国 ( 1973年 )、</t>
-  </si>
-  <si>
-    <t>希腊 ( 1981年 )、</t>
-  </si>
-  <si>
-    <t>葡萄牙 ( 1986年 )、</t>
-  </si>
-  <si>
-    <t>西班牙 ( 1986年 )、</t>
-  </si>
-  <si>
-    <t>奥地利 ( 1995年 )、</t>
-  </si>
-  <si>
-    <t>芬兰 ( 1995年 )、</t>
-  </si>
-  <si>
-    <t>瑞典 ( 1995年 )、</t>
-  </si>
-  <si>
-    <t>波兰 ( 2004年 ）、</t>
-  </si>
-  <si>
-    <t>拉脱维亚 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>立陶宛 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>爱沙尼亚 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>匈牙利 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>捷克 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>斯洛伐克 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>马耳他 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>塞浦路斯 ( 2004年 )、</t>
-  </si>
-  <si>
-    <t>保加利亚 ( 2007年 )、</t>
-  </si>
-  <si>
-    <t>罗马尼亚 ( 2007年 ）、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">克罗地亚（2013年） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <t>history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以删除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是空链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外/国内商务经理</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外游戏运营专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外推广专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场推广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外市场专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,6 +916,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1208,9 +1351,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
@@ -1347,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT69"/>
+  <dimension ref="A1:CT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1508,7 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="9" style="20"/>
@@ -1649,11 +1798,14 @@
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
@@ -1680,446 +1832,521 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
+    <row r="39" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK34" s="24"/>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="16"/>
-      <c r="CF34" s="16"/>
-      <c r="CG34" s="16"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="16"/>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
-    </row>
-    <row r="35" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="AK39" s="24"/>
+      <c r="BY39" s="16"/>
+      <c r="BZ39" s="16"/>
+      <c r="CA39" s="16"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="16"/>
+      <c r="CF39" s="16"/>
+      <c r="CG39" s="16"/>
+      <c r="CH39" s="16"/>
+      <c r="CI39" s="16"/>
+      <c r="CJ39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="16"/>
+      <c r="CM39" s="16"/>
+      <c r="CN39" s="16"/>
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+    </row>
+    <row r="40" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK35" s="24"/>
-      <c r="BY35" s="16"/>
-      <c r="BZ35" s="16"/>
-      <c r="CA35" s="16"/>
-      <c r="CB35" s="16"/>
-      <c r="CC35" s="16"/>
-      <c r="CD35" s="16"/>
-      <c r="CE35" s="16"/>
-      <c r="CF35" s="16"/>
-      <c r="CG35" s="16"/>
-      <c r="CH35" s="16"/>
-      <c r="CI35" s="16"/>
-      <c r="CJ35" s="16"/>
-      <c r="CK35" s="16"/>
-      <c r="CL35" s="16"/>
-      <c r="CM35" s="16"/>
-      <c r="CN35" s="16"/>
-      <c r="CO35" s="16"/>
-      <c r="CP35" s="16"/>
-      <c r="CQ35" s="16"/>
-      <c r="CR35" s="16"/>
-      <c r="CS35" s="16"/>
-      <c r="CT35" s="16"/>
-    </row>
-    <row r="38" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="AK40" s="24"/>
+      <c r="BY40" s="16"/>
+      <c r="BZ40" s="16"/>
+      <c r="CA40" s="16"/>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="16"/>
+      <c r="CD40" s="16"/>
+      <c r="CE40" s="16"/>
+      <c r="CF40" s="16"/>
+      <c r="CG40" s="16"/>
+      <c r="CH40" s="16"/>
+      <c r="CI40" s="16"/>
+      <c r="CJ40" s="16"/>
+      <c r="CK40" s="16"/>
+      <c r="CL40" s="16"/>
+      <c r="CM40" s="16"/>
+      <c r="CN40" s="16"/>
+      <c r="CO40" s="16"/>
+      <c r="CP40" s="16"/>
+      <c r="CQ40" s="16"/>
+      <c r="CR40" s="16"/>
+      <c r="CS40" s="16"/>
+      <c r="CT40" s="16"/>
+    </row>
+    <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="14" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D55" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="1">
+    <row r="65" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D61" s="4">
+    <row r="66" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D66" s="4">
         <v>2</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D62" s="4">
-        <v>3</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D63" s="4">
-        <v>4</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="4">
-        <v>5</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D65" s="4">
-        <v>6</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D66" s="1">
-        <v>7</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="67" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D67" s="4">
-        <v>8</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D68" s="4">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D70" s="4">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D72" s="4">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D73" s="4">
         <v>9</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+    <row r="74" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2128,6 +2355,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A96695B-E657-4696-8AE2-D06A610764CC}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC24BD4-121F-4094-BE55-5F56588C6BB3}">
   <dimension ref="A2:B29"/>
   <sheetViews>
@@ -2145,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2153,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2161,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2169,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2177,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2185,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2193,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2201,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2209,7 +2520,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2217,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2225,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2233,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2241,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2249,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2257,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2265,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2273,7 +2584,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2281,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2289,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2297,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2305,7 +2616,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2313,7 +2624,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2321,7 +2632,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2329,7 +2640,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2337,7 +2648,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2345,7 +2656,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2353,7 +2664,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2361,7 +2672,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2450,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E9682-8462-4F95-BA20-A36E1EE779FE}">
   <dimension ref="A2:C4"/>
   <sheetViews>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B64ABA3-C514-4B51-8B9E-0AF8F0523351}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32240BC-353A-40D8-9EC0-339AE9148023}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,6 +896,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,11 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1224,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1260,7 +1260,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1268,13 +1268,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1290,13 +1290,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1306,13 +1306,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1344,13 +1344,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1362,31 +1362,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1416,7 +1416,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1436,49 +1436,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1560,7 +1560,7 @@
       <c r="CT2" s="16"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="CT3" s="16"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1632,7 +1632,7 @@
       <c r="CT4" s="16"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1667,7 +1667,7 @@
       <c r="CT5" s="16"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1702,7 +1702,7 @@
       <c r="CT6" s="16"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1737,13 +1737,13 @@
       <c r="CT7" s="16"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="CT9" s="16"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -1809,43 +1809,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -1884,13 +1884,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="17" t="s">
         <v>88</v>
       </c>
@@ -1933,13 +1933,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1951,17 +1951,17 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -1971,20 +1971,20 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
@@ -1994,51 +1994,51 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="CT40" s="16"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2134,31 +2134,31 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>164</v>
       </c>
       <c r="B6" t="s">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32240BC-353A-40D8-9EC0-339AE9148023}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41998778-2450-4F8E-B0FE-3673E9D119BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="170">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,9 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -922,6 +920,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,7 +1223,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1236,7 +1235,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1244,7 +1243,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1252,7 +1251,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1260,7 +1259,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1268,13 +1267,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1282,7 +1281,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1290,13 +1289,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1306,13 +1305,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1321,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1331,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1344,13 +1343,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1362,31 +1361,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1395,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1406,7 +1405,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1416,7 +1415,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1428,7 +1427,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1436,49 +1435,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1498,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,10 +1510,10 @@
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="38.125" style="20" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="22" customWidth="1"/>
-    <col min="77" max="98" width="9" style="16"/>
+    <col min="8" max="8" width="9" style="18"/>
+    <col min="9" max="9" width="38.125" style="18" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="20" customWidth="1"/>
+    <col min="77" max="98" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1523,262 +1522,262 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="AK2" s="23"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="AK2" s="21"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="AK3" s="23"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="16"/>
-      <c r="CM3" s="16"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
-      <c r="CQ3" s="16"/>
-      <c r="CR3" s="16"/>
-      <c r="CS3" s="16"/>
-      <c r="CT3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="AK3" s="21"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="AK4" s="23"/>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
-      <c r="CJ4" s="16"/>
-      <c r="CK4" s="16"/>
-      <c r="CL4" s="16"/>
-      <c r="CM4" s="16"/>
-      <c r="CN4" s="16"/>
-      <c r="CO4" s="16"/>
-      <c r="CP4" s="16"/>
-      <c r="CQ4" s="16"/>
-      <c r="CR4" s="16"/>
-      <c r="CS4" s="16"/>
-      <c r="CT4" s="16"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="AK4" s="21"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="AK5" s="23"/>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="AK5" s="21"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="AK6" s="23"/>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="AK6" s="21"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="AK7" s="23"/>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16"/>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16"/>
-      <c r="CS7" s="16"/>
-      <c r="CT7" s="16"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="AK7" s="21"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="14"/>
+      <c r="CJ7" s="14"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="14"/>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="AK9" s="23"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="AK9" s="21"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="14"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1786,17 +1785,17 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -1809,43 +1808,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -1858,7 +1857,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -1871,7 +1870,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -1884,13 +1883,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1905,7 +1904,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -1918,8 +1917,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -1933,112 +1932,112 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2061,29 +2060,29 @@
       <c r="E39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK39" s="24"/>
-      <c r="BY39" s="16"/>
-      <c r="BZ39" s="16"/>
-      <c r="CA39" s="16"/>
-      <c r="CB39" s="16"/>
-      <c r="CC39" s="16"/>
-      <c r="CD39" s="16"/>
-      <c r="CE39" s="16"/>
-      <c r="CF39" s="16"/>
-      <c r="CG39" s="16"/>
-      <c r="CH39" s="16"/>
-      <c r="CI39" s="16"/>
-      <c r="CJ39" s="16"/>
-      <c r="CK39" s="16"/>
-      <c r="CL39" s="16"/>
-      <c r="CM39" s="16"/>
-      <c r="CN39" s="16"/>
-      <c r="CO39" s="16"/>
-      <c r="CP39" s="16"/>
-      <c r="CQ39" s="16"/>
-      <c r="CR39" s="16"/>
-      <c r="CS39" s="16"/>
-      <c r="CT39" s="16"/>
+      <c r="AK39" s="22"/>
+      <c r="BY39" s="14"/>
+      <c r="BZ39" s="14"/>
+      <c r="CA39" s="14"/>
+      <c r="CB39" s="14"/>
+      <c r="CC39" s="14"/>
+      <c r="CD39" s="14"/>
+      <c r="CE39" s="14"/>
+      <c r="CF39" s="14"/>
+      <c r="CG39" s="14"/>
+      <c r="CH39" s="14"/>
+      <c r="CI39" s="14"/>
+      <c r="CJ39" s="14"/>
+      <c r="CK39" s="14"/>
+      <c r="CL39" s="14"/>
+      <c r="CM39" s="14"/>
+      <c r="CN39" s="14"/>
+      <c r="CO39" s="14"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
+      <c r="CS39" s="14"/>
+      <c r="CT39" s="14"/>
     </row>
     <row r="40" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
@@ -2097,68 +2096,68 @@
       <c r="E40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK40" s="24"/>
-      <c r="BY40" s="16"/>
-      <c r="BZ40" s="16"/>
-      <c r="CA40" s="16"/>
-      <c r="CB40" s="16"/>
-      <c r="CC40" s="16"/>
-      <c r="CD40" s="16"/>
-      <c r="CE40" s="16"/>
-      <c r="CF40" s="16"/>
-      <c r="CG40" s="16"/>
-      <c r="CH40" s="16"/>
-      <c r="CI40" s="16"/>
-      <c r="CJ40" s="16"/>
-      <c r="CK40" s="16"/>
-      <c r="CL40" s="16"/>
-      <c r="CM40" s="16"/>
-      <c r="CN40" s="16"/>
-      <c r="CO40" s="16"/>
-      <c r="CP40" s="16"/>
-      <c r="CQ40" s="16"/>
-      <c r="CR40" s="16"/>
-      <c r="CS40" s="16"/>
-      <c r="CT40" s="16"/>
+      <c r="AK40" s="22"/>
+      <c r="BY40" s="14"/>
+      <c r="BZ40" s="14"/>
+      <c r="CA40" s="14"/>
+      <c r="CB40" s="14"/>
+      <c r="CC40" s="14"/>
+      <c r="CD40" s="14"/>
+      <c r="CE40" s="14"/>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="14"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="14"/>
+      <c r="CJ40" s="14"/>
+      <c r="CK40" s="14"/>
+      <c r="CL40" s="14"/>
+      <c r="CM40" s="14"/>
+      <c r="CN40" s="14"/>
+      <c r="CO40" s="14"/>
+      <c r="CP40" s="14"/>
+      <c r="CQ40" s="14"/>
+      <c r="CR40" s="14"/>
+      <c r="CS40" s="14"/>
+      <c r="CT40" s="14"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2400,7 +2399,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B6" t="s">
@@ -2452,226 +2451,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>133</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41998778-2450-4F8E-B0FE-3673E9D119BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3A8F0-4E78-4111-9B6B-1A9937D26DF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,6 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1223,7 +1224,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1235,7 +1236,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1243,7 +1244,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1251,7 +1252,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1259,7 +1260,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1267,13 +1268,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1281,7 +1282,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1289,13 +1290,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1305,13 +1306,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1322,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1331,7 +1332,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1343,13 +1344,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1361,31 +1362,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1395,7 +1396,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1406,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1415,7 +1416,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1428,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1435,49 +1436,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1498,7 +1499,7 @@
   <dimension ref="A1:CT74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1510,10 +1511,10 @@
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="18"/>
-    <col min="9" max="9" width="38.125" style="18" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="20" customWidth="1"/>
-    <col min="77" max="98" width="9" style="14"/>
+    <col min="8" max="8" width="9" style="19"/>
+    <col min="9" max="9" width="38.125" style="19" customWidth="1"/>
+    <col min="37" max="37" width="47.25" style="21" customWidth="1"/>
+    <col min="77" max="98" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.2">
@@ -1522,262 +1523,262 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="AK2" s="21"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="AK2" s="22"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="AK3" s="21"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="AK3" s="22"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="AK4" s="21"/>
-      <c r="BY4" s="14"/>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14"/>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="AK4" s="22"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="15"/>
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="15"/>
+      <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="AK5" s="21"/>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14"/>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14"/>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14"/>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="14"/>
-      <c r="CS5" s="14"/>
-      <c r="CT5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="AK5" s="22"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15"/>
+      <c r="CS5" s="15"/>
+      <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="AK6" s="21"/>
-      <c r="BY6" s="14"/>
-      <c r="BZ6" s="14"/>
-      <c r="CA6" s="14"/>
-      <c r="CB6" s="14"/>
-      <c r="CC6" s="14"/>
-      <c r="CD6" s="14"/>
-      <c r="CE6" s="14"/>
-      <c r="CF6" s="14"/>
-      <c r="CG6" s="14"/>
-      <c r="CH6" s="14"/>
-      <c r="CI6" s="14"/>
-      <c r="CJ6" s="14"/>
-      <c r="CK6" s="14"/>
-      <c r="CL6" s="14"/>
-      <c r="CM6" s="14"/>
-      <c r="CN6" s="14"/>
-      <c r="CO6" s="14"/>
-      <c r="CP6" s="14"/>
-      <c r="CQ6" s="14"/>
-      <c r="CR6" s="14"/>
-      <c r="CS6" s="14"/>
-      <c r="CT6" s="14"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="AK6" s="22"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15"/>
+      <c r="CS6" s="15"/>
+      <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="AK7" s="21"/>
-      <c r="BY7" s="14"/>
-      <c r="BZ7" s="14"/>
-      <c r="CA7" s="14"/>
-      <c r="CB7" s="14"/>
-      <c r="CC7" s="14"/>
-      <c r="CD7" s="14"/>
-      <c r="CE7" s="14"/>
-      <c r="CF7" s="14"/>
-      <c r="CG7" s="14"/>
-      <c r="CH7" s="14"/>
-      <c r="CI7" s="14"/>
-      <c r="CJ7" s="14"/>
-      <c r="CK7" s="14"/>
-      <c r="CL7" s="14"/>
-      <c r="CM7" s="14"/>
-      <c r="CN7" s="14"/>
-      <c r="CO7" s="14"/>
-      <c r="CP7" s="14"/>
-      <c r="CQ7" s="14"/>
-      <c r="CR7" s="14"/>
-      <c r="CS7" s="14"/>
-      <c r="CT7" s="14"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="AK7" s="22"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="15"/>
+      <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="AK9" s="21"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14"/>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14"/>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
-      <c r="CP9" s="14"/>
-      <c r="CQ9" s="14"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="14"/>
-      <c r="CT9" s="14"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="AK9" s="22"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15"/>
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15"/>
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1785,17 +1786,17 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -1808,43 +1809,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -1857,7 +1858,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -1870,7 +1871,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -1883,13 +1884,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1904,7 +1905,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -1917,8 +1918,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -1932,13 +1933,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1950,7 +1951,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
@@ -1960,7 +1961,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -1970,30 +1971,30 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
@@ -2003,7 +2004,7 @@
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
@@ -2013,31 +2014,31 @@
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2060,29 +2061,29 @@
       <c r="E39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK39" s="22"/>
-      <c r="BY39" s="14"/>
-      <c r="BZ39" s="14"/>
-      <c r="CA39" s="14"/>
-      <c r="CB39" s="14"/>
-      <c r="CC39" s="14"/>
-      <c r="CD39" s="14"/>
-      <c r="CE39" s="14"/>
-      <c r="CF39" s="14"/>
-      <c r="CG39" s="14"/>
-      <c r="CH39" s="14"/>
-      <c r="CI39" s="14"/>
-      <c r="CJ39" s="14"/>
-      <c r="CK39" s="14"/>
-      <c r="CL39" s="14"/>
-      <c r="CM39" s="14"/>
-      <c r="CN39" s="14"/>
-      <c r="CO39" s="14"/>
-      <c r="CP39" s="14"/>
-      <c r="CQ39" s="14"/>
-      <c r="CR39" s="14"/>
-      <c r="CS39" s="14"/>
-      <c r="CT39" s="14"/>
+      <c r="AK39" s="23"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="15"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="15"/>
+      <c r="CG39" s="15"/>
+      <c r="CH39" s="15"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="15"/>
+      <c r="CK39" s="15"/>
+      <c r="CL39" s="15"/>
+      <c r="CM39" s="15"/>
+      <c r="CN39" s="15"/>
+      <c r="CO39" s="15"/>
+      <c r="CP39" s="15"/>
+      <c r="CQ39" s="15"/>
+      <c r="CR39" s="15"/>
+      <c r="CS39" s="15"/>
+      <c r="CT39" s="15"/>
     </row>
     <row r="40" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
@@ -2096,68 +2097,68 @@
       <c r="E40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK40" s="22"/>
-      <c r="BY40" s="14"/>
-      <c r="BZ40" s="14"/>
-      <c r="CA40" s="14"/>
-      <c r="CB40" s="14"/>
-      <c r="CC40" s="14"/>
-      <c r="CD40" s="14"/>
-      <c r="CE40" s="14"/>
-      <c r="CF40" s="14"/>
-      <c r="CG40" s="14"/>
-      <c r="CH40" s="14"/>
-      <c r="CI40" s="14"/>
-      <c r="CJ40" s="14"/>
-      <c r="CK40" s="14"/>
-      <c r="CL40" s="14"/>
-      <c r="CM40" s="14"/>
-      <c r="CN40" s="14"/>
-      <c r="CO40" s="14"/>
-      <c r="CP40" s="14"/>
-      <c r="CQ40" s="14"/>
-      <c r="CR40" s="14"/>
-      <c r="CS40" s="14"/>
-      <c r="CT40" s="14"/>
+      <c r="AK40" s="23"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="15"/>
+      <c r="CG40" s="15"/>
+      <c r="CH40" s="15"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="15"/>
+      <c r="CP40" s="15"/>
+      <c r="CQ40" s="15"/>
+      <c r="CR40" s="15"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="15"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="38" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2399,7 +2400,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="B6" t="s">
@@ -2451,226 +2452,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>133</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3A8F0-4E78-4111-9B6B-1A9937D26DF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF4AEE-2C7F-4D24-90F0-45BA84664262}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="170">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1567,7 @@
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="20"/>
@@ -1602,7 +1602,7 @@
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="20"/>
@@ -1637,7 +1637,7 @@
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="20"/>
@@ -1672,7 +1672,7 @@
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="20"/>
@@ -1707,7 +1707,7 @@
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="20"/>
@@ -1748,7 +1748,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="20"/>
@@ -1791,7 +1791,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="C33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>148</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF4AEE-2C7F-4D24-90F0-45BA84664262}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E47A3D-854D-4F55-9B29-2761A4992FD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:CT74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E47A3D-854D-4F55-9B29-2761A4992FD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF0B6A-2EC2-47C9-B5FC-8F285B93C0F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
     <sheet name="PC-html文件命名" sheetId="3" r:id="rId2"/>
-    <sheet name="招聘命名ID" sheetId="6" r:id="rId3"/>
-    <sheet name="欧盟27个成员国（除去英国）" sheetId="5" r:id="rId4"/>
-    <sheet name="mob站命名规范" sheetId="1" r:id="rId5"/>
-    <sheet name="PC广告平台" sheetId="4" r:id="rId6"/>
+    <sheet name="pdf文件名-对应的文件名称" sheetId="7" r:id="rId3"/>
+    <sheet name="招聘命名ID" sheetId="6" r:id="rId4"/>
+    <sheet name="欧盟27个成员国（除去英国）" sheetId="5" r:id="rId5"/>
+    <sheet name="mob站命名规范" sheetId="1" r:id="rId6"/>
+    <sheet name="PC广告平台" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +675,38 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf文件名-对应的文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上文件命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10全球游戏产业2018年度白皮书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win10GlobalGameIndustry.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2016年上半年Win10行业数据报告 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryDataReport2016.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,6 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,7 +955,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1204,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1224,7 +1258,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1236,7 +1270,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1244,7 +1278,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1252,7 +1286,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1260,7 +1294,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1268,13 +1302,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1282,7 +1316,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1290,13 +1324,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1306,13 +1340,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1356,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1366,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1344,13 +1378,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1362,31 +1396,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1430,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1406,7 +1440,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1416,7 +1450,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1428,7 +1462,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1436,49 +1470,49 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1498,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,14 +1557,14 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="20"/>
@@ -1560,7 +1594,7 @@
       <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1631,7 @@
       <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1632,7 +1666,7 @@
       <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1667,7 +1701,7 @@
       <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1702,7 +1736,7 @@
       <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1737,13 +1771,13 @@
       <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -1778,7 +1812,7 @@
       <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1820,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1830,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -1809,43 +1843,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -1858,7 +1892,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -1871,7 +1905,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -1884,13 +1918,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1905,7 +1939,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -1918,7 +1952,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
@@ -1933,13 +1967,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1951,7 +1985,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
@@ -1961,7 +1995,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -1971,7 +2005,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
@@ -1984,17 +2018,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
@@ -2004,7 +2038,7 @@
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
@@ -2014,31 +2048,31 @@
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2156,7 @@
       <c r="CT40" s="15"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2134,31 +2168,31 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2355,6 +2389,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2B228-C9E0-4AB0-A269-F33C83AE42B8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="40">
+        <v>43316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="40">
+        <v>42605</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A96695B-E657-4696-8AE2-D06A610764CC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2438,7 +2532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC24BD4-121F-4094-BE55-5F56588C6BB3}">
   <dimension ref="A2:B29"/>
   <sheetViews>
@@ -2681,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2761,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E9682-8462-4F95-BA20-A36E1EE779FE}">
   <dimension ref="A2:C4"/>
   <sheetViews>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF0B6A-2EC2-47C9-B5FC-8F285B93C0F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025DD83-E61B-4352-BE2C-83660E2A647E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="204">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,6 +707,110 @@
   </si>
   <si>
     <t>IndustryDataReport2016.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告平台（adcenter）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roof-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertisers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launcher.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系商务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,6 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,7 +1060,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1236,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1258,7 +1362,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1270,7 +1374,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1278,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1286,7 +1390,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1294,7 +1398,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1302,13 +1406,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1316,7 +1422,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1324,13 +1430,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1340,13 +1446,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1462,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1366,7 +1472,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1378,13 +1484,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1396,31 +1502,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1536,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1440,7 +1546,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1450,7 +1556,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1462,7 +1568,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1470,57 +1576,136 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="36"/>
+      <c r="B42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="36"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="36"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="37"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A27:A37"/>
+    <mergeCell ref="A41:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT74"/>
+  <dimension ref="A1:CT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,14 +1742,14 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="20"/>
@@ -1594,7 +1779,7 @@
       <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1816,7 @@
       <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1666,7 +1851,7 @@
       <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1701,7 +1886,7 @@
       <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1736,7 +1921,7 @@
       <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1771,13 +1956,13 @@
       <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -1812,7 +1997,7 @@
       <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1820,7 +2005,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +2015,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -1843,43 +2028,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -1892,7 +2077,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -1905,7 +2090,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -1918,13 +2103,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1939,7 +2124,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -1952,7 +2137,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
@@ -1967,13 +2152,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -1985,7 +2170,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
@@ -1995,7 +2180,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -2005,7 +2190,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
@@ -2018,17 +2203,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
@@ -2038,41 +2223,41 @@
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +2341,7 @@
       <c r="CT40" s="15"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2168,214 +2353,305 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>91</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C69" t="s">
         <v>92</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>96</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D65" s="1">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D66" s="4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="4">
         <v>2</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D67" s="4">
+    <row r="81" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D81" s="4">
         <v>3</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6" t="s">
+      <c r="E81" s="5"/>
+      <c r="F81" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D68" s="4">
+    <row r="82" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D82" s="4">
         <v>4</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6" t="s">
+      <c r="E82" s="5"/>
+      <c r="F82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D69" s="4">
+    <row r="83" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D83" s="4">
         <v>5</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6" t="s">
+      <c r="E83" s="5"/>
+      <c r="F83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D70" s="4">
+    <row r="84" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D84" s="4">
         <v>6</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6" t="s">
+      <c r="E84" s="5"/>
+      <c r="F84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AM70" t="s">
+      <c r="AM84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D71" s="1">
+    <row r="85" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D85" s="1">
         <v>7</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D72" s="4">
+    <row r="86" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D86" s="4">
         <v>8</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D73" s="4">
+    <row r="87" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D87" s="4">
         <v>9</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+    <row r="88" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2420,7 +2696,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="40">
+      <c r="A4" s="32">
         <v>43316</v>
       </c>
       <c r="B4" t="s">
@@ -2431,7 +2707,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+      <c r="A5" s="32">
         <v>42605</v>
       </c>
       <c r="B5" t="s">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025DD83-E61B-4352-BE2C-83660E2A647E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51277147-1BB7-4236-A3E7-0E4166FAE93D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="209">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,26 @@
   </si>
   <si>
     <t>commercial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roofnav.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部nav(用于显示选项卡的动态特效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holden.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项卡始终处于顶部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,6 +1080,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1717,15 +1738,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
@@ -2465,13 +2486,48 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="41" t="s">
         <v>203</v>
       </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51277147-1BB7-4236-A3E7-0E4166FAE93D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57086B09-6B38-4A0D-8542-F0B5FF717A69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="219">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,46 @@
   </si>
   <si>
     <t>选项卡始终处于顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部板块功能css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置默认功能css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子页面样式css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心样式css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,6 +1412,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,8 +1724,12 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
@@ -1736,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT88"/>
+  <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2466,7 @@
       <c r="C52" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2431,7 +2476,7 @@
       <c r="C53" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2441,7 +2486,7 @@
       <c r="C54" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2451,7 +2496,7 @@
       <c r="C55" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2529,185 +2574,239 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>50</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>52</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C86" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C89" t="s">
         <v>92</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>96</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D79" s="1">
+    <row r="99" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="4">
+    <row r="100" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D100" s="4">
         <v>2</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D81" s="4">
+    <row r="101" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D101" s="4">
         <v>3</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6" t="s">
+      <c r="E101" s="5"/>
+      <c r="F101" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D82" s="4">
+    <row r="102" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D102" s="4">
         <v>4</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6" t="s">
+      <c r="E102" s="5"/>
+      <c r="F102" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D83" s="4">
+    <row r="103" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D103" s="4">
         <v>5</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6" t="s">
+      <c r="E103" s="5"/>
+      <c r="F103" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D84" s="4">
+    <row r="104" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D104" s="4">
         <v>6</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6" t="s">
+      <c r="E104" s="5"/>
+      <c r="F104" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" t="s">
+      <c r="AM104" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D85" s="1">
+    <row r="105" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D105" s="1">
         <v>7</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D86" s="4">
+    <row r="106" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D106" s="4">
         <v>8</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D87" s="4">
+    <row r="107" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D107" s="4">
         <v>9</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+    <row r="108" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57086B09-6B38-4A0D-8542-F0B5FF717A69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBBA9C-C0E5-415C-A26D-1EA607428448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="219">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1099,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,7 +1121,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1424,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1492,13 +1492,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1508,13 +1508,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1546,13 +1546,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1564,31 +1564,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1618,7 +1618,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1638,55 +1638,55 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>178</v>
       </c>
       <c r="B41" s="11"/>
@@ -1696,7 +1696,7 @@
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="11" t="s">
         <v>179</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
@@ -1716,13 +1716,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
         <v>216</v>
@@ -1732,37 +1732,37 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1845,7 +1845,7 @@
       <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1917,7 +1917,7 @@
       <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1952,7 +1952,7 @@
       <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1987,7 +1987,7 @@
       <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -2022,13 +2022,13 @@
       <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -2094,43 +2094,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -2156,7 +2156,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -2169,13 +2169,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
@@ -2218,13 +2218,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
@@ -2299,31 +2299,31 @@
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="CT40" s="15"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2419,31 +2419,31 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2466,7 +2466,7 @@
       <c r="C52" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2532,11 +2532,11 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="34" t="s">
         <v>203</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBBA9C-C0E5-415C-A26D-1EA607428448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9061C8-C775-4E14-BF25-C826DD0B4F4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="219">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9061C8-C775-4E14-BF25-C826DD0B4F4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3148FE-DFD1-45B6-8956-D4B537A4DFC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于我们</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -871,6 +867,14 @@
   </si>
   <si>
     <t>adv-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,6 +1125,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1403,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1718,7 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,17 +1731,19 @@
       <c r="A45" s="37"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
@@ -1783,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1815,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="42" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="20"/>
@@ -1852,7 +1860,7 @@
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="20"/>
@@ -1887,7 +1895,7 @@
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="20"/>
@@ -1922,7 +1930,7 @@
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="20"/>
@@ -1957,7 +1965,7 @@
       <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="20"/>
@@ -1992,7 +2000,7 @@
       <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="20"/>
@@ -2033,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="20"/>
@@ -2076,7 +2084,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2328,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2457,7 +2465,7 @@
         <v>185</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,7 +2475,7 @@
         <v>186</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,7 +2485,7 @@
         <v>187</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2487,57 +2495,57 @@
         <v>188</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>193</v>
+      <c r="C56" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>199</v>
+      <c r="C57" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>200</v>
+      <c r="C58" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>202</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2549,23 +2557,23 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,43 +2585,43 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3148FE-DFD1-45B6-8956-D4B537A4DFC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D713D-EDC3-422B-972B-34729A511460}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,6 +1104,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,8 +1127,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1430,7 +1430,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1498,13 +1498,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1514,13 +1514,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1552,13 +1552,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -1570,31 +1570,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="11"/>
@@ -1624,7 +1624,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -1644,55 +1644,55 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>178</v>
       </c>
       <c r="B41" s="11"/>
@@ -1702,7 +1702,7 @@
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="11" t="s">
         <v>179</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
@@ -1722,13 +1722,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
         <v>215</v>
@@ -1738,7 +1738,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
@@ -1746,31 +1746,31 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1816,14 +1816,14 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="20"/>
@@ -1853,7 +1853,7 @@
       <c r="CT2" s="15"/>
     </row>
     <row r="3" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="CT3" s="15"/>
     </row>
     <row r="4" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
@@ -1925,7 +1925,7 @@
       <c r="CT4" s="15"/>
     </row>
     <row r="5" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1960,7 +1960,7 @@
       <c r="CT5" s="15"/>
     </row>
     <row r="6" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>39</v>
@@ -1995,7 +1995,7 @@
       <c r="CT6" s="15"/>
     </row>
     <row r="7" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -2030,13 +2030,13 @@
       <c r="CT7" s="15"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="CT9" s="15"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -2102,43 +2102,43 @@
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
         <v>81</v>
@@ -2177,13 +2177,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
         <v>86</v>
@@ -2211,7 +2211,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="16" t="s">
         <v>88</v>
       </c>
@@ -2226,13 +2226,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>137</v>
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>138</v>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>139</v>
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>140</v>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
         <v>141</v>
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>142</v>
@@ -2307,36 +2307,36 @@
       </c>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       <c r="CT40" s="15"/>
     </row>
     <row r="43" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2427,31 +2427,31 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2511,30 +2511,30 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="36" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="36" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="36" t="s">
         <v>199</v>
       </c>
     </row>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D713D-EDC3-422B-972B-34729A511460}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD440C3-34FA-40DD-9897-383C1C3FF0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="222">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +875,14 @@
   </si>
   <si>
     <t>数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
   <dimension ref="A1:CT108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2464,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>184</v>
@@ -2468,7 +2476,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
@@ -2478,7 +2486,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
@@ -2487,8 +2495,12 @@
       <c r="D53" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
@@ -2497,8 +2509,12 @@
       <c r="D54" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
@@ -2508,7 +2524,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="36" t="s">
@@ -2518,7 +2534,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="36" t="s">
@@ -2528,7 +2544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="36" t="s">
@@ -2538,7 +2554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34" t="s">
@@ -2548,13 +2564,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>203</v>
@@ -2566,7 +2582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
@@ -2576,13 +2592,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>208</v>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD440C3-34FA-40DD-9897-383C1C3FF0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8231A4-2553-4DA0-B537-9771FC345D6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:CT108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/命名规范.xlsx
+++ b/文档/命名规范.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A49BC2-B4CF-467B-BBC4-BDC29B953A33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F3822-854E-43C7-B15E-36F1FFBA7D8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,6 +1014,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,15 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1371,7 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1399,7 +1399,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -1407,7 +1407,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -1415,7 +1415,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1439,13 +1439,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1455,13 +1455,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
@@ -1493,13 +1493,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
@@ -1511,31 +1511,31 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="4"/>
@@ -1565,7 +1565,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -1585,58 +1585,58 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1645,8 +1645,8 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="4" t="s">
         <v>131</v>
       </c>
@@ -1655,22 +1655,22 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="4" t="s">
         <v>162</v>
       </c>
@@ -1679,22 +1679,22 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="4" t="s">
         <v>171</v>
       </c>
@@ -1703,14 +1703,14 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="4" t="s">
         <v>172</v>
       </c>
@@ -1719,14 +1719,14 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="33" t="s">
         <v>174</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1735,15 +1735,15 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1757,19 +1757,19 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
         <v>192</v>
@@ -1779,49 +1779,49 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="42"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="2" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1925,7 +1925,7 @@
       <c r="CT2" s="7"/>
     </row>
     <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="17"/>
@@ -1973,7 +1973,7 @@
       <c r="CT3" s="7"/>
     </row>
     <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="CT4" s="7"/>
     </row>
     <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -2083,7 +2083,7 @@
       <c r="CT5" s="7"/>
     </row>
     <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>36</v>
@@ -2139,7 +2139,7 @@
       <c r="CT6" s="7"/>
     </row>
     <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>37</v>
@@ -2191,7 +2191,7 @@
       <c r="CT7" s="7"/>
     </row>
     <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -2243,7 +2243,7 @@
       <c r="CT8" s="7"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -2260,7 +2260,7 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="CT10" s="7"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="21" t="s">
         <v>34</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="I12"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2357,7 +2357,7 @@
       <c r="I13"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>89</v>
@@ -2391,7 +2391,7 @@
       <c r="I15"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>90</v>
@@ -2403,7 +2403,7 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>91</v>
@@ -2418,7 +2418,7 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>92</v>
@@ -2428,7 +2428,7 @@
       </c>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>93</v>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>94</v>
@@ -2448,13 +2448,13 @@
       </c>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>167</v>
@@ -2467,19 +2467,19 @@
       </c>
     </row>
     <row r="23" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2601,7 +2601,7 @@
       <c r="I28" s="24"/>
     </row>
     <row r="30" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2613,37 +2613,37 @@
       </c>
     </row>
     <row r="31" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="37" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="3"/>
@@ -2668,7 +2668,7 @@
       <c r="CT38"/>
     </row>
     <row r="39" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
         <v>135</v>
@@ -2691,7 +2691,7 @@
       <c r="CT39"/>
     </row>
     <row r="40" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>136</v>
@@ -2714,7 +2714,7 @@
       <c r="CT40"/>
     </row>
     <row r="41" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>137</v>
@@ -2737,7 +2737,7 @@
       <c r="CT41"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>166</v>
@@ -2760,7 +2760,7 @@
       <c r="CT42"/>
     </row>
     <row r="43" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="3"/>
       <c r="C43" s="13" t="s">
         <v>138</v>
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="3"/>
       <c r="C44" s="13" t="s">
         <v>139</v>
@@ -2781,7 +2781,7 @@
       <c r="H44"/>
     </row>
     <row r="45" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18" t="s">
         <v>148</v>
@@ -2791,13 +2791,13 @@
       </c>
     </row>
     <row r="46" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="3" t="s">
         <v>150</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="48" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>154</v>
@@ -2819,13 +2819,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="3" t="s">
         <v>155</v>
       </c>
@@ -2837,7 +2837,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>157</v>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>163</v>
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
         <v>161</v>
@@ -2867,19 +2867,19 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="40" t="s">
         <v>185</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2893,25 +2893,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="3" t="s">
         <v>182</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
         <v>186</v>
@@ -2933,13 +2933,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
